--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2034391591836081</v>
+        <v>-0.2112792329596069</v>
       </c>
       <c r="D2">
-        <v>0.8388164473059363</v>
+        <v>0.8346142853460654</v>
       </c>
       <c r="E2">
         <v>1.085307489022653</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9363342625488191</v>
+        <v>0.8749341390389186</v>
       </c>
       <c r="D3">
-        <v>0.3492357670892141</v>
+        <v>0.3910618507920902</v>
       </c>
       <c r="E3">
         <v>1.085307489022653</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.01872780165800165</v>
+        <v>-0.02303693466243946</v>
       </c>
       <c r="D4">
-        <v>0.9850604747791398</v>
+        <v>0.9818284854960273</v>
       </c>
       <c r="E4">
         <v>1.085307489022653</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.03733292501202161</v>
+        <v>0.03666118379617099</v>
       </c>
       <c r="D5">
-        <v>0.9702239914602395</v>
+        <v>0.9710857866805345</v>
       </c>
       <c r="E5">
         <v>1.085307489022653</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.9525654383327957</v>
+        <v>0.9345532631462787</v>
       </c>
       <c r="D6">
-        <v>0.3409474038860532</v>
+        <v>0.3601637795523547</v>
       </c>
       <c r="E6">
         <v>1.09552985066804</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1996884822518978</v>
+        <v>0.2270016199225518</v>
       </c>
       <c r="D7">
-        <v>0.8417484030375646</v>
+        <v>0.8225185970915152</v>
       </c>
       <c r="E7">
         <v>1.09552985066804</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.2388904314856811</v>
+        <v>0.2119308746452045</v>
       </c>
       <c r="D8">
-        <v>0.8112196998304111</v>
+        <v>0.8341121038847605</v>
       </c>
       <c r="E8">
         <v>1.09552985066804</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7216301424070508</v>
+        <v>-0.933357001044356</v>
       </c>
       <c r="D9">
-        <v>0.4706223802912102</v>
+        <v>0.3607672231615782</v>
       </c>
       <c r="E9">
         <v>1.048824489606544</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.7418106741717356</v>
+        <v>-0.65224488974074</v>
       </c>
       <c r="D10">
-        <v>0.4583058027710889</v>
+        <v>0.5210004191458175</v>
       </c>
       <c r="E10">
         <v>1.048824489606544</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.05571855931126977</v>
+        <v>0.07578543954818262</v>
       </c>
       <c r="D11">
-        <v>0.9555726435957301</v>
+        <v>0.9402747530856583</v>
       </c>
       <c r="E11">
         <v>1.08619645549163</v>
